--- a/data_processed/20250627/BTCUSDQMOMENT_20250627.xlsx
+++ b/data_processed/20250627/BTCUSDQMOMENT_20250627.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>6.626070514320102</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1.400202336862439</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4842730983059223</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.5938596744236889</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.059269257706759</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250627/BTCUSDQMOMENT_20250627.xlsx
+++ b/data_processed/20250627/BTCUSDQMOMENT_20250627.xlsx
@@ -510,19 +510,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D2" t="n">
-        <v>107478.8362089045</v>
+        <v>107476.9161419617</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00374116334472915</v>
+        <v>0.003617399874283669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729719388612518</v>
+        <v>0.173625874445852</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.551312638127173</v>
+        <v>-1.589981041063056</v>
       </c>
       <c r="H2" t="n">
-        <v>16.93054452936779</v>
+        <v>17.4178780006375</v>
       </c>
       <c r="I2" t="n">
         <v>1.197888801942739</v>
@@ -552,19 +552,19 @@
         <v>0.1726027397260274</v>
       </c>
       <c r="D3" t="n">
-        <v>108390.9569452529</v>
+        <v>108232.0758374846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002892969897882386</v>
+        <v>-0.004542212730375906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1726546734595451</v>
+        <v>0.2037658022930758</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4735105248688824</v>
+        <v>-1.825199076932311</v>
       </c>
       <c r="H3" t="n">
-        <v>6.626070514320102</v>
+        <v>19.90438322351699</v>
       </c>
       <c r="I3" t="n">
         <v>1.400202336862439</v>
@@ -594,19 +594,19 @@
         <v>0.2493150684931507</v>
       </c>
       <c r="D4" t="n">
-        <v>108836.1659805397</v>
+        <v>108837.6930382102</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01128989283106647</v>
+        <v>-0.0113524103336068</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2226378421160714</v>
+        <v>0.2238400813988149</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.582943442971624</v>
+        <v>-1.665945255668843</v>
       </c>
       <c r="H4" t="n">
-        <v>15.97260859511247</v>
+        <v>17.22781570930497</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -628,19 +628,19 @@
         <v>0.3452054794520548</v>
       </c>
       <c r="D5" t="n">
-        <v>109465.9646047298</v>
+        <v>109477.0727525339</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02404586164591596</v>
+        <v>-0.02092515166765615</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2739002141396997</v>
+        <v>0.240629380352568</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.061104944250973</v>
+        <v>-1.368125743226005</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4042043925532</v>
+        <v>12.0913129524412</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4986301369863014</v>
       </c>
       <c r="D7" t="n">
-        <v>110607.7729933442</v>
+        <v>110603.2708207846</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03225043977827927</v>
+        <v>-0.03257082180835618</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2637068343429649</v>
+        <v>0.2658790274177847</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.520317755854149</v>
+        <v>-1.599152670106467</v>
       </c>
       <c r="H7" t="n">
-        <v>13.04919180927484</v>
+        <v>13.97573728883357</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.9205479452054794</v>
       </c>
       <c r="D8" t="n">
-        <v>112067.8831028327</v>
+        <v>112064.1073413354</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04918961670708193</v>
+        <v>-0.04930393833406367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2279722648691735</v>
+        <v>0.2283365855568399</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.023431472828906</v>
+        <v>-1.031343685244</v>
       </c>
       <c r="H8" t="n">
-        <v>7.759240662822044</v>
+        <v>7.808993686208689</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9972602739726028</v>
       </c>
       <c r="D9" t="n">
-        <v>113814.2707005426</v>
+        <v>113811.4031281088</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.09538194545938973</v>
+        <v>-0.09629787212868798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3827492262669669</v>
+        <v>0.3892634046940351</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.4559714509233</v>
+        <v>-1.560341121503166</v>
       </c>
       <c r="H9" t="n">
-        <v>8.503350217428096</v>
+        <v>9.3449970508922</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.246575342465754</v>
       </c>
       <c r="D10" t="n">
-        <v>115125.1514976652</v>
+        <v>115121.562192494</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1367579888092127</v>
+        <v>-0.1378937230725891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4857923809047809</v>
+        <v>0.4933568717092279</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.595919415544226</v>
+        <v>-1.666786479785098</v>
       </c>
       <c r="H10" t="n">
-        <v>7.336030527300557</v>
+        <v>7.852648229366139</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.493150684931507</v>
       </c>
       <c r="D11" t="n">
-        <v>118434.5700473195</v>
+        <v>117152.6102817787</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1182056270568343</v>
+        <v>-0.1493872439347294</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4062443902801495</v>
+        <v>0.4902954498040062</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.139983343888511</v>
+        <v>-1.489340449343088</v>
       </c>
       <c r="H11" t="n">
-        <v>5.447227630493447</v>
+        <v>6.808393445811004</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1034,19 +1034,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D16" t="n">
-        <v>107479.5268320507</v>
+        <v>107486.8139978289</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04846345343689676</v>
+        <v>0.04917852490688815</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1345996329280461</v>
+        <v>0.1312076037811604</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7497834391206079</v>
+        <v>-0.4960488970660601</v>
       </c>
       <c r="H16" t="n">
-        <v>8.310900828811301</v>
+        <v>5.763117108828423</v>
       </c>
       <c r="I16" t="n">
         <v>0.2076847563574059</v>
@@ -1076,19 +1076,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D17" t="n">
-        <v>107707.8568952027</v>
+        <v>107389.6115682416</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05302817101673671</v>
+        <v>0.03801546998358998</v>
       </c>
       <c r="F17" t="n">
-        <v>0.17595696765639</v>
+        <v>0.1271071697411284</v>
       </c>
       <c r="G17" t="n">
-        <v>1.616284028146296</v>
+        <v>-0.8200296653877858</v>
       </c>
       <c r="H17" t="n">
-        <v>20.354972656885</v>
+        <v>5.875091313900017</v>
       </c>
       <c r="I17" t="n">
         <v>0.2090663559138321</v>
@@ -1202,19 +1202,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D20" t="n">
-        <v>108264.413622698</v>
+        <v>108399.3838202697</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01904812592410961</v>
+        <v>0.0250789756816017</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1806968159567886</v>
+        <v>0.1639977452644685</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.9131253431657002</v>
+        <v>-0.3773779946812458</v>
       </c>
       <c r="H20" t="n">
-        <v>8.165582577816252</v>
+        <v>4.89018952680705</v>
       </c>
       <c r="I20" t="n">
         <v>1.336023921913737</v>

--- a/data_processed/20250627/BTCUSDQMOMENT_20250627.xlsx
+++ b/data_processed/20250627/BTCUSDQMOMENT_20250627.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>17.22781570930497</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1.305312848156691</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4139721571589941</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.3287368726715542</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.997181445403649</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250627/BTCUSDQMOMENT_20250627.xlsx
+++ b/data_processed/20250627/BTCUSDQMOMENT_20250627.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>12.0913129524412</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1.289671547221794</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5206953613327997</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07372489015042043</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.19796163554654</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
